--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45757</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44937</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44964</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44610</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44419.53385416666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44458</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44390</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44818</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44726</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44852.59957175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45645.78270833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45443</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>45166</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45457.60121527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45076</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45373</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45643.57449074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45552.48734953703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>45051</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44956.42466435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45627.58290509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45699</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45077</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45384.30657407407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45166.39717592593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44741.4200462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45651.88362268519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45643.47832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44664.68390046297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44816</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45309</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45664</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45531</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45742.62731481482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45450.38638888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>45885.43899305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>45485.3945949074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>45811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45889.63019675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45632</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45460.3953125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45460.39871527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45888.31350694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45811.46427083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45282.38482638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45813.29658564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>45813.29825231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44988.39259259259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44987.54940972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44987.55047453703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44901.3806712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45089.37612268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45820.60309027778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45665</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45369.72144675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45569.39880787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45552.34012731481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45099.32682870371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45905</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45904.55456018518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45763.73197916667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45821</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45911.43915509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45684.69579861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45915.54888888889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45912</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>45803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>44749</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45831.43407407407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>45919</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>45922.35612268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>45457.59540509259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45096.59550925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45720</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44890</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44950.31137731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44740.29990740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44894</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45835.73509259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45627.58121527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45929.50880787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45835</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45834.35425925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45834.35538194444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45343</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45191.49090277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45341</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45481.5821875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45350</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45841.50584490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45841.55050925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45841.43224537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>44924.63210648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45841.32841435185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45233.45410879629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44756.48106481481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>45937.67055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45938.37202546297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45938.38199074074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45938.3859375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45841.44478009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>45841.55305555555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45841.35288194445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45841.56569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45938.36971064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44860.31002314815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45841.34233796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>45841.41972222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45939.63877314814</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45937.66828703704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45142.3334837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45552.4934375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45579.48623842592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45764.41078703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45399.63689814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45552.43295138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45947.46731481481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44901.36065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45720</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44924.68337962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45741.70502314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44690.68015046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45236.38694444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>45952.40320601852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>45954.77373842592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>45756.39010416667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44900.66938657407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44964.66091435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45954.77623842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45642.86667824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45530.53361111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45295</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45720</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45328</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45961</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44978</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45964.59778935185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45443</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44853.35390046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45145.74783564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45553.33733796296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45082.31181712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45082.32069444445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45882</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45971</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45405.63997685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45972.54129629629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45972.37239583334</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45972.39038194445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45972.4053587963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45972.61072916666</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45972.37070601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45642.86611111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45352.78115740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45974.30063657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45974.30472222222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45974.30938657407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45268</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45885.44560185185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45885.4540162037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45706.35903935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45721.5662962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45553.3358912037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45349.74234953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45555.63206018518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45664</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45685</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45273.43495370371</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45531</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44405.86967592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45756.38744212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45096</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45637.68884259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44972</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45627.57983796296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44792</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>45156</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45322.71071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45965</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>46017</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>46017</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45373</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44900</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44868.3232175926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44328.47186342593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45049</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45750.82100694445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45775.39840277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45775.40157407407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45694.76770833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45133.41232638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45552.49091435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45056.59340277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44798</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>46009.489375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>44986</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>46010.30141203704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45699</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45002.37699074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44958.433125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44923.64385416666</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44923.64582175926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>46057.59109953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45556.34140046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>44746</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45414.60575231481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44907.39542824074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45729</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45562.3779050926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45700.69462962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45750</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45127.60350694445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45763.6129050926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44937</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45553.33474537037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45231</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45687.54039351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45552</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45425.46256944445</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44347</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45344</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45300.4333449074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45448.62668981482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44782.57694444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45754.44958333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45625</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>45246</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45215</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45324</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45378</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44483.29784722222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45531</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45531</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44827</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44827</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45209</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44343</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45268</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45328</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44907.39209490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45604.39815972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44900.45856481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45713.49025462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>44951</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45775.40270833333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45757.54159722223</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45607.57304398148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45142.31351851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44937.58658564815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45775.49373842592</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44697</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44746</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45777.45978009259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45581.34831018518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45727</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45713.77140046296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45730.31946759259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45493.34775462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45394</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45439.63131944444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45209</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45631</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45569.39606481481</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45763.6150462963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45757</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44937</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44964</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44610</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44419.53385416666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44458</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44390</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44818</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44726</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44852.59957175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45645.78270833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45443</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>45166</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45457.60121527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45076</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45373</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45643.57449074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45552.48734953703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>45051</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44956.42466435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45627.58290509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45699</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45077</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45384.30657407407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45166.39717592593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44741.4200462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45651.88362268519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45643.47832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44664.68390046297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>44816</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45309</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45664</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45531</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45742.62731481482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45450.38638888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>45885.43899305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>45485.3945949074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>45811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45889.63019675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45632</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45460.3953125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45460.39871527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45888.31350694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45811.46427083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45282.38482638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45813.29658564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>45813.29825231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44988.39259259259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44987.54940972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44987.55047453703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44901.3806712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45089.37612268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45820.60309027778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45665</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45369.72144675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45569.39880787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45552.34012731481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45099.32682870371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45905</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45904.55456018518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45763.73197916667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45821</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45911.43915509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45684.69579861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45915.54888888889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45912</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>45803</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>44749</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45831.43407407407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>45919</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>45922.35612268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>45457.59540509259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45096.59550925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45720</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44890</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44950.31137731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44740.29990740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44894</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>45835.73509259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45627.58121527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45929.50880787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45835</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45834.35425925926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45834.35538194444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45343</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45191.49090277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>45341</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45481.5821875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45350</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45841.50584490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45841.55050925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45841.43224537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>44924.63210648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45841.32841435185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45233.45410879629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44756.48106481481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>45937.67055555555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45938.37202546297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45938.38199074074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45938.3859375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45841.44478009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>45841.55305555555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45841.35288194445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45841.56569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45938.36971064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44860.31002314815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45841.34233796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>45841.41972222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45939.63877314814</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>45937.66828703704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>45142.3334837963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45552.4934375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45579.48623842592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45764.41078703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>45399.63689814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45552.43295138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45947.46731481481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44901.36065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45720</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44924.68337962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45741.70502314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44690.68015046296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45236.38694444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>45952.40320601852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>45954.77373842592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>45756.39010416667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44900.66938657407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44964.66091435185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45954.77623842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45642.86667824074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45530.53361111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45295</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45720</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45328</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45961</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44978</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45937</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45964.59778935185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45443</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44853.35390046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45145.74783564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45553.33733796296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45082.31181712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45082.32069444445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45882</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45971</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45405.63997685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45972.54129629629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45972.37239583334</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45972.39038194445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45972.4053587963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45972.61072916666</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45972.37070601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45642.86611111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45352.78115740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45974.30063657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45974.30472222222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45974.30938657407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45268</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>45885.44560185185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>45885.4540162037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>45706.35903935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>45721.5662962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45553.3358912037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45349.74234953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45555.63206018518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45664</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45685</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45273.43495370371</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45531</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44405.86967592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45756.38744212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45096</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45637.68884259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44972</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45627.57983796296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44792</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>45156</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45322.71071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45965</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>46017</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>46017</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45373</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44900</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44868.3232175926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44328.47186342593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45049</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45750.82100694445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45775.39840277778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45775.40157407407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45694.76770833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45133.41232638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45552.49091435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45056.59340277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44798</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>46009.489375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>44986</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>46010.30141203704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45699</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45002.37699074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44958.433125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44923.64385416666</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44923.64582175926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>46057.59109953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45556.34140046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>44746</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45414.60575231481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44907.39542824074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45729</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45562.3779050926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45700.69462962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45750</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45127.60350694445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45763.6129050926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44937</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45553.33474537037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45231</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45687.54039351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45552</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45425.46256944445</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44347</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44903</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45344</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45300.4333449074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45448.62668981482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44782.57694444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45754.44958333333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45625</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>45246</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45215</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45324</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45378</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44483.29784722222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45531</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45531</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44827</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44827</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45209</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44343</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45268</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45328</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44907.39209490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45604.39815972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44900.45856481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45713.49025462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>44951</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45775.40270833333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45757.54159722223</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45607.57304398148</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45142.31351851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44937.58658564815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45775.49373842592</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44697</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44746</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45777.45978009259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45581.34831018518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45727</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45713.77140046296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45730.31946759259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45493.34775462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45394</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45439.63131944444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45209</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45631</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45569.39606481481</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45763.6150462963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44608</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45757</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44937</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44985</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44964</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44610</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2090,14 +2090,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40321-2021</t>
+          <t>A 63749-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44419.53385416666</v>
+        <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,14 +2147,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63749-2021</t>
+          <t>A 40321-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44509</v>
+        <v>44419.53385416666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2261,14 +2261,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 62632-2021</t>
+          <t>A 34149-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44503</v>
+        <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2318,14 +2318,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 62633-2021</t>
+          <t>A 62632-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2375,14 +2375,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34149-2021</t>
+          <t>A 62633-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44379</v>
+        <v>44503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44458</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44818</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44726</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44614</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4700,14 +4700,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47162-2022</t>
+          <t>A 39634-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44852.59957175926</v>
+        <v>44818</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4719,8 +4719,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4757,14 +4762,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39634-2022</t>
+          <t>A 47162-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44818</v>
+        <v>44852.59957175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4776,13 +4781,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>44853</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4938,14 +4938,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39894-2023</t>
+          <t>A 61281-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45166</v>
+        <v>45645.78270833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4995,14 +4995,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61281-2024</t>
+          <t>A 39894-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45645.78270833333</v>
+        <v>45166</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45443</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5223,14 +5223,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20210-2022</t>
+          <t>A 24363-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44698</v>
+        <v>45457.60121527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,8 +5242,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5287,7 +5292,7 @@
         <v>45076</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5337,14 +5342,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39652-2024</t>
+          <t>A 20210-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45552.48734953703</v>
+        <v>44698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5362,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5401,7 +5406,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5451,14 +5456,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60433-2024</t>
+          <t>A 39652-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45643.57449074074</v>
+        <v>45552.48734953703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5471,7 +5476,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5515,7 +5520,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5565,14 +5570,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11680-2024</t>
+          <t>A 4435-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45373</v>
+        <v>44956.42466435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5590,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5622,14 +5627,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24363-2024</t>
+          <t>A 60433-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45457.60121527778</v>
+        <v>45643.57449074074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5641,13 +5646,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5684,14 +5684,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4435-2023</t>
+          <t>A 11680-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44956.42466435185</v>
+        <v>45373</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>12.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5741,14 +5741,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19723-2023</t>
+          <t>A 10431-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45051</v>
+        <v>45720</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5760,13 +5760,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5803,14 +5798,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10431-2025</t>
+          <t>A 19723-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45720</v>
+        <v>45051</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,8 +5817,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5979,14 +5979,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6446-2025</t>
+          <t>A 11730-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45699</v>
+        <v>45727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>11.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6036,14 +6036,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5971-2022</t>
+          <t>A 56685-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44599</v>
+        <v>45627.58290509259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6093,14 +6093,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23664-2023</t>
+          <t>A 38704-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45077</v>
+        <v>45885.43899305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6112,13 +6112,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6155,14 +6150,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56685-2024</t>
+          <t>A 9109-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45627.58290509259</v>
+        <v>45713.77140046296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6175,7 +6170,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6212,14 +6207,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60384-2024</t>
+          <t>A 6446-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45643.47832175926</v>
+        <v>45699</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6232,7 +6227,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6269,14 +6264,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15947-2022</t>
+          <t>A 5971-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44664.68390046297</v>
+        <v>44599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6289,7 +6284,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6326,14 +6321,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12634-2024</t>
+          <t>A 55729-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45384.30657407407</v>
+        <v>45972.54129629629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6346,7 +6341,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6383,14 +6378,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7122-2024</t>
+          <t>A 23664-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45344</v>
+        <v>45077</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6402,8 +6397,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6440,14 +6440,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12328-2025</t>
+          <t>A 55652-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45730.31946759259</v>
+        <v>45972.37239583334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6459,8 +6459,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6497,14 +6502,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61873-2024</t>
+          <t>A 12328-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45651.88362268519</v>
+        <v>45730.31946759259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6522,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6554,14 +6559,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38704-2025</t>
+          <t>A 55656-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45885.43899305556</v>
+        <v>45972.39038194445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6573,8 +6578,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6611,14 +6621,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38841-2022</t>
+          <t>A 55669-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44816</v>
+        <v>45972.4053587963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6632,11 +6642,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6673,14 +6683,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39189-2023</t>
+          <t>A 55766-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45166.39717592593</v>
+        <v>45972.61072916666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6692,8 +6702,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6730,14 +6745,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27086-2022</t>
+          <t>A 55648-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44741.4200462963</v>
+        <v>45972.37070601852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6749,8 +6764,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6787,14 +6807,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2128-2024</t>
+          <t>A 60384-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45309</v>
+        <v>45643.47832175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6807,7 +6827,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6844,14 +6864,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30593-2024</t>
+          <t>A 15947-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45493.34775462963</v>
+        <v>44664.68390046297</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6864,7 +6884,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6901,14 +6921,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14505-2024</t>
+          <t>A 12634-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45394</v>
+        <v>45384.30657407407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6921,7 +6941,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6958,14 +6978,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21014-2024</t>
+          <t>A 7122-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45439.63131944444</v>
+        <v>45344</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6978,7 +6998,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7015,14 +7035,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48969-2023</t>
+          <t>A 39394-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45209</v>
+        <v>45889.63019675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7035,7 +7055,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7072,14 +7092,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58006-2024</t>
+          <t>A 30593-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45631</v>
+        <v>45493.34775462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7092,7 +7112,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7129,14 +7149,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43559-2024</t>
+          <t>A 61873-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45569.39606481481</v>
+        <v>45651.88362268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7169,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7186,14 +7206,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18690-2025</t>
+          <t>A 14505-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45763.6150462963</v>
+        <v>45394</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,13 +7225,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7248,14 +7263,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39394-2025</t>
+          <t>A 38987-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45889.63019675926</v>
+        <v>45888.31350694445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7268,7 +7283,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7305,14 +7320,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48734-2024</t>
+          <t>A 38841-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45593</v>
+        <v>44816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,8 +7339,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7362,14 +7382,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38987-2025</t>
+          <t>A 56131-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45888.31350694445</v>
+        <v>45974.30063657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7382,7 +7402,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7419,14 +7439,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35438-2024</t>
+          <t>A 56132-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45531</v>
+        <v>45974.30472222222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7439,7 +7459,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7476,14 +7496,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 905-2025</t>
+          <t>A 21014-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45664</v>
+        <v>45439.63131944444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7496,7 +7516,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7553,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14722-2025</t>
+          <t>A 48969-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45742.62731481482</v>
+        <v>45209</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7553,7 +7573,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7610,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23033-2024</t>
+          <t>A 58006-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45450.38638888889</v>
+        <v>45631</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7610,7 +7630,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7647,14 +7667,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29739-2024</t>
+          <t>A 39189-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45485.3945949074</v>
+        <v>45166.39717592593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,13 +7686,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7709,14 +7724,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26941-2025</t>
+          <t>A 27086-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45811</v>
+        <v>44741.4200462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7729,7 +7744,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7766,14 +7781,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 989-2022</t>
+          <t>A 43559-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44571</v>
+        <v>45569.39606481481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7786,7 +7801,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7823,14 +7838,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26963-2025</t>
+          <t>A 18690-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45811.46427083333</v>
+        <v>45763.6150462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,8 +7857,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7880,14 +7900,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25410-2023</t>
+          <t>A 56133-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45089.37612268519</v>
+        <v>45974.30938657407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7900,7 +7920,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.9</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7937,14 +7957,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27429-2025</t>
+          <t>A 48734-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45813.29658564815</v>
+        <v>45593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,13 +7976,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7999,14 +8014,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27430-2025</t>
+          <t>A 2128-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45813.29825231482</v>
+        <v>45309</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,13 +8033,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8061,14 +8071,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42587-2025</t>
+          <t>A 35438-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45905</v>
+        <v>45531</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8081,7 +8091,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8118,14 +8128,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44518-2023</t>
+          <t>A 905-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45189</v>
+        <v>45664</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8138,7 +8148,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8175,14 +8185,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42230-2025</t>
+          <t>A 989-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45904.55456018518</v>
+        <v>44571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8195,7 +8205,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58097-2024</t>
+          <t>A 25410-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45632</v>
+        <v>45089.37612268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8252,7 +8262,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8289,14 +8299,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28869-2025</t>
+          <t>A 14722-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.60309027778</v>
+        <v>45742.62731481482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8309,7 +8319,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8346,14 +8356,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 24544-2024</t>
+          <t>A 23033-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45460.3953125</v>
+        <v>45450.38638888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8366,7 +8376,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8403,14 +8413,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24546-2024</t>
+          <t>A 26941-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45460.39871527778</v>
+        <v>45811</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8423,7 +8433,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43561-2024</t>
+          <t>A 29739-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45569.39880787037</v>
+        <v>45485.3945949074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8479,8 +8489,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8517,14 +8532,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64799-2023</t>
+          <t>A 42587-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45282.38482638889</v>
+        <v>45905</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8537,7 +8552,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8574,14 +8589,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18741-2025</t>
+          <t>A 42230-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45763.73197916667</v>
+        <v>45904.55456018518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8594,7 +8609,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8631,14 +8646,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29180-2025</t>
+          <t>A 26963-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45821</v>
+        <v>45811.46427083333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8651,7 +8666,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8688,14 +8703,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43440-2025</t>
+          <t>A 27429-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45911.43915509259</v>
+        <v>45813.29658564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8707,8 +8722,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8745,14 +8765,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10598-2023</t>
+          <t>A 27430-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44988.39259259259</v>
+        <v>45813.29825231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8764,8 +8784,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8802,14 +8827,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10430-2023</t>
+          <t>A 43440-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44987.54940972223</v>
+        <v>45911.43915509259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,7 +8847,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8859,14 +8884,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10431-2023</t>
+          <t>A 4109-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44987.55047453703</v>
+        <v>45684.69579861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8904,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8916,14 +8941,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4109-2025</t>
+          <t>A 44074-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45684.69579861111</v>
+        <v>45915.54888888889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8936,7 +8961,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8973,14 +8998,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44074-2025</t>
+          <t>A 43688-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45915.54888888889</v>
+        <v>45912</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +9018,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9030,14 +9055,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58226-2022</t>
+          <t>A 25908-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44901.3806712963</v>
+        <v>45803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,7 +9075,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9087,14 +9112,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43688-2025</t>
+          <t>A 28869-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45912</v>
+        <v>45820.60309027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9132,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9144,14 +9169,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30591-2025</t>
+          <t>A 44518-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45831.43407407407</v>
+        <v>45189</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9189,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9201,14 +9226,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25908-2025</t>
+          <t>A 58097-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45803</v>
+        <v>45632</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9246,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>8.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9265,7 +9290,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9315,14 +9340,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62980-2025</t>
+          <t>A 43561-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46009.489375</v>
+        <v>45569.39880787037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9360,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9397,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32308-2025</t>
+          <t>A 24544-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45835.73509259259</v>
+        <v>45460.3953125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9417,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9454,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45262-2025</t>
+          <t>A 24546-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45919</v>
+        <v>45460.39871527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9474,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9511,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32155-2025</t>
+          <t>A 18741-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45835</v>
+        <v>45763.73197916667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9531,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9568,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31660-2025</t>
+          <t>A 45262-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45834.35425925926</v>
+        <v>45919</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9562,13 +9587,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>11.5</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9605,14 +9625,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45349-2025</t>
+          <t>A 29180-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45922.35612268518</v>
+        <v>45821</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9625,7 +9645,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9662,14 +9682,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31661-2025</t>
+          <t>A 64799-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45834.35538194444</v>
+        <v>45282.38482638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9681,13 +9701,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9724,14 +9739,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1981-2025</t>
+          <t>A 45349-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45665</v>
+        <v>45922.35612268518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9744,7 +9759,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9781,14 +9796,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10833-2024</t>
+          <t>A 10598-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45369.72144675926</v>
+        <v>44988.39259259259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9801,7 +9816,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9838,14 +9853,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 39558-2024</t>
+          <t>A 10430-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45552.34012731481</v>
+        <v>44987.54940972223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,7 +9873,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9895,14 +9910,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28044-2023</t>
+          <t>A 10431-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45099.32682870371</v>
+        <v>44987.55047453703</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9915,7 +9930,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9959,7 +9974,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10009,14 +10024,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33489-2025</t>
+          <t>A 58226-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45841.50584490741</v>
+        <v>44901.3806712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,13 +10043,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10071,14 +10081,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33528-2025</t>
+          <t>A 46972-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45841.55050925926</v>
+        <v>45929.50880787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10090,13 +10100,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10133,14 +10138,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33408-2025</t>
+          <t>A 30591-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45841.43224537037</v>
+        <v>45831.43407407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10152,13 +10157,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10195,14 +10195,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33309-2025</t>
+          <t>A 32308-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45841.32841435185</v>
+        <v>45835.73509259259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10214,13 +10214,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10257,14 +10252,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33424-2025</t>
+          <t>A 32155-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.44478009259</v>
+        <v>45835</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10276,13 +10271,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10319,14 +10309,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33541-2025</t>
+          <t>A 31660-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45841</v>
+        <v>45834.35425925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10340,11 +10330,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10381,14 +10371,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 33530-2025</t>
+          <t>A 1981-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45841.55305555555</v>
+        <v>45665</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10400,13 +10390,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10443,14 +10428,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33331-2025</t>
+          <t>A 10833-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45841.35288194445</v>
+        <v>45369.72144675926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10462,13 +10447,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10505,14 +10485,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 33534-2025</t>
+          <t>A 31661-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45841</v>
+        <v>45834.35538194444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10526,11 +10506,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10567,14 +10547,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33544-2025</t>
+          <t>A 39558-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45841.56569444444</v>
+        <v>45552.34012731481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10587,7 +10567,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10624,14 +10604,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46972-2025</t>
+          <t>A 28044-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45929.50880787037</v>
+        <v>45099.32682870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10644,7 +10624,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10681,14 +10661,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33316-2025</t>
+          <t>A 49088-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45841.34233796296</v>
+        <v>45937.67055555555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10702,11 +10682,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10743,14 +10723,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33396-2025</t>
+          <t>A 49171-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45841.41972222222</v>
+        <v>45938.37202546297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10762,13 +10742,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10805,14 +10780,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63133-2025</t>
+          <t>A 49177-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46010.30141203704</v>
+        <v>45938.38199074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10824,13 +10799,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10867,14 +10837,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 18845-2025</t>
+          <t>A 49180-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45764.41078703704</v>
+        <v>45938.3859375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10887,7 +10857,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10924,14 +10894,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 28965-2022</t>
+          <t>A 33489-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44749</v>
+        <v>45841.50584490741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10943,8 +10913,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10981,14 +10956,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 10442-2025</t>
+          <t>A 33528-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45720</v>
+        <v>45841.55050925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11000,8 +10975,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11038,14 +11018,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14550-2025</t>
+          <t>A 33408-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45741.70502314815</v>
+        <v>45841.43224537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11057,8 +11037,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>8.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11095,14 +11080,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24355-2024</t>
+          <t>A 33309-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45457.59540509259</v>
+        <v>45841.32841435185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11120,7 +11105,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11157,14 +11142,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 18948-2022</t>
+          <t>A 49169-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44690.68015046296</v>
+        <v>45938.36971064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11177,7 +11162,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11214,14 +11199,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 27231-2023</t>
+          <t>A 33424-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45096.59550925926</v>
+        <v>45841.44478009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11239,7 +11224,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11276,14 +11261,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49088-2025</t>
+          <t>A 33541-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45937.67055555555</v>
+        <v>45841</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,11 +11282,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11338,14 +11323,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49171-2025</t>
+          <t>A 33530-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45938.37202546297</v>
+        <v>45841.55305555555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11357,8 +11342,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11395,14 +11385,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 49177-2025</t>
+          <t>A 33331-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45938.38199074074</v>
+        <v>45841.35288194445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11414,8 +11404,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11452,14 +11447,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49180-2025</t>
+          <t>A 33534-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45938.3859375</v>
+        <v>45841</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11471,8 +11466,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11509,14 +11509,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 10355-2025</t>
+          <t>A 33544-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45720</v>
+        <v>45841.56569444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56273-2022</t>
+          <t>A 49670-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44890</v>
+        <v>45939.63877314814</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11587,11 +11587,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>12.6</v>
+        <v>8.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11628,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49169-2025</t>
+          <t>A 49085-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45938.36971064815</v>
+        <v>45937.66828703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11647,8 +11647,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11685,14 +11690,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3508-2023</t>
+          <t>A 33316-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44950.31137731481</v>
+        <v>45841.34233796296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11704,8 +11709,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11742,14 +11752,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 26759-2022</t>
+          <t>A 33396-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44740.29990740741</v>
+        <v>45841.41972222222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11761,8 +11771,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11799,14 +11814,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56614-2024</t>
+          <t>A 28965-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45625</v>
+        <v>44749</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11834,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11871,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49670-2025</t>
+          <t>A 18845-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45939.63877314814</v>
+        <v>45764.41078703704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11875,13 +11890,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>8.1</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11918,14 +11928,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56831-2022</t>
+          <t>A 24355-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44894</v>
+        <v>45457.59540509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11937,8 +11947,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11975,14 +11990,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49085-2025</t>
+          <t>A 27231-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45937.66828703704</v>
+        <v>45096.59550925926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11996,11 +12011,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12037,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56684-2024</t>
+          <t>A 51081-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45627.58121527778</v>
+        <v>45947.46731481481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12057,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12094,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60268-2024</t>
+          <t>A 10355-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45642.86667824074</v>
+        <v>45720</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12114,7 +12129,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12151,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 317-2024</t>
+          <t>A 56273-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45295</v>
+        <v>44890</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12170,8 +12185,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>12.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12208,14 +12228,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 10448-2025</t>
+          <t>A 10442-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>45720</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12228,7 +12248,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12265,14 +12285,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7093-2024</t>
+          <t>A 3508-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45343</v>
+        <v>44950.31137731481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12285,7 +12305,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12322,14 +12342,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45161-2023</t>
+          <t>A 26759-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45191.49090277778</v>
+        <v>44740.29990740741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12342,7 +12362,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12379,14 +12399,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 6970-2026</t>
+          <t>A 56614-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46057.59109953704</v>
+        <v>45625</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12399,7 +12419,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12436,14 +12456,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51081-2025</t>
+          <t>A 14550-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45947.46731481481</v>
+        <v>45741.70502314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12456,7 +12476,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12493,14 +12513,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6578-2024</t>
+          <t>A 56831-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45341</v>
+        <v>44894</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12513,7 +12533,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12550,14 +12570,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29023-2024</t>
+          <t>A 18948-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45481.5821875</v>
+        <v>44690.68015046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12570,7 +12590,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12607,14 +12627,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8315-2024</t>
+          <t>A 56684-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45350</v>
+        <v>45627.58121527778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12627,7 +12647,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12664,14 +12684,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9655-2023</t>
+          <t>A 51879-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44978</v>
+        <v>45952.40320601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12721,14 +12741,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51879-2025</t>
+          <t>A 52638-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45952.40320601852</v>
+        <v>45954.77373842592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12741,7 +12761,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12778,14 +12798,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38287-2025</t>
+          <t>A 7093-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45882</v>
+        <v>45343</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12798,7 +12818,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12835,14 +12855,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62521-2022</t>
+          <t>A 45161-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44924.63210648148</v>
+        <v>45191.49090277778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12855,7 +12875,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12892,14 +12912,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52638-2025</t>
+          <t>A 6578-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45954.77373842592</v>
+        <v>45341</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12912,7 +12932,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12949,14 +12969,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 54459-2023</t>
+          <t>A 29023-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45233.45410879629</v>
+        <v>45481.5821875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12968,13 +12988,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13011,14 +13026,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29891-2022</t>
+          <t>A 52639-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44756.48106481481</v>
+        <v>45954.77623842593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13031,7 +13046,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13068,14 +13083,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60267-2024</t>
+          <t>A 8315-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45642.86611111111</v>
+        <v>45350</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13088,7 +13103,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13125,14 +13140,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 52639-2025</t>
+          <t>A 9655-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45954.77623842593</v>
+        <v>44978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13145,7 +13160,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13182,14 +13197,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 48957-2022</t>
+          <t>A 62521-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44860.31002314815</v>
+        <v>44924.63210648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13201,13 +13216,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13244,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38705-2025</t>
+          <t>A 60268-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45885.44560185185</v>
+        <v>45642.86667824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13264,7 +13274,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13301,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38706-2025</t>
+          <t>A 54016-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45885.4540162037</v>
+        <v>45961</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13321,7 +13331,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13358,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54016-2025</t>
+          <t>A 54459-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45961</v>
+        <v>45233.45410879629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13377,8 +13387,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13415,14 +13430,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 49197-2025</t>
+          <t>A 29891-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45937</v>
+        <v>44756.48106481481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13435,7 +13450,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13472,14 +13487,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 34865-2023</t>
+          <t>A 49197-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45142.3334837963</v>
+        <v>45937</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13491,13 +13506,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13534,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54217-2025</t>
+          <t>A 317-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45964.59778935185</v>
+        <v>45295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13554,7 +13564,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13591,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 39659-2024</t>
+          <t>A 10448-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45552.4934375</v>
+        <v>45720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13611,7 +13621,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13648,14 +13658,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 45649-2024</t>
+          <t>A 54217-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45579.48623842592</v>
+        <v>45964.59778935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13668,7 +13678,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13705,14 +13715,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 15086-2024</t>
+          <t>A 48957-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45399.63689814815</v>
+        <v>44860.31002314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13724,8 +13734,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13769,7 +13784,7 @@
         <v>45971</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13819,14 +13834,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 55596-2025</t>
+          <t>A 34865-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45971</v>
+        <v>45142.3334837963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13838,8 +13853,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13876,14 +13896,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 39621-2024</t>
+          <t>A 55596-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45552.43295138889</v>
+        <v>45971</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13896,7 +13916,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13933,14 +13953,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58213-2022</t>
+          <t>A 39659-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44901.36065972222</v>
+        <v>45552.4934375</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13953,7 +13973,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13990,14 +14010,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7860-2026</t>
+          <t>A 38287-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46062.68663194445</v>
+        <v>45882</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14010,7 +14030,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14047,14 +14067,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55729-2025</t>
+          <t>A 45649-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45972.54129629629</v>
+        <v>45579.48623842592</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14087,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14104,14 +14124,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55652-2025</t>
+          <t>A 15086-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45972.37239583334</v>
+        <v>45399.63689814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14123,13 +14143,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14166,14 +14181,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62542-2022</t>
+          <t>A 60267-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44924.68337962963</v>
+        <v>45642.86611111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14201,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14223,14 +14238,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55656-2025</t>
+          <t>A 39621-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45972.39038194445</v>
+        <v>45552.43295138889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14242,13 +14257,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14285,14 +14295,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 55669-2025</t>
+          <t>A 58213-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45972.4053587963</v>
+        <v>44901.36065972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14304,13 +14314,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14347,14 +14352,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 55766-2025</t>
+          <t>A 62542-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45972.61072916666</v>
+        <v>44924.68337962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14366,13 +14371,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14409,14 +14409,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 55648-2025</t>
+          <t>A 54734-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45972.37070601852</v>
+        <v>45236.38694444444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14428,13 +14428,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14466,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54734-2023</t>
+          <t>A 38705-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45236.38694444444</v>
+        <v>45885.44560185185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14486,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14523,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 56131-2025</t>
+          <t>A 38706-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45974.30063657407</v>
+        <v>45885.4540162037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14543,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14580,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56132-2025</t>
+          <t>A 17188-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45974.30472222222</v>
+        <v>45756.39010416667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,8 +14599,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14642,14 +14642,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56133-2025</t>
+          <t>A 58123-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45974.30938657407</v>
+        <v>44900.66938657407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14699,14 +14699,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17188-2025</t>
+          <t>A 6162-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45756.39010416667</v>
+        <v>44964.66091435185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,13 +14718,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14761,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58123-2022</t>
+          <t>A 54565-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44900.66938657407</v>
+        <v>45965</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14781,7 +14776,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14818,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 6162-2023</t>
+          <t>A 35232-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44964.66091435185</v>
+        <v>45530.53361111111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14838,7 +14833,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14875,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 35232-2024</t>
+          <t>A 4708-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45530.53361111111</v>
+        <v>45328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14895,7 +14890,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14932,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 4708-2024</t>
+          <t>A 108-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45328</v>
+        <v>46017</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14952,7 +14947,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14989,14 +14984,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9651-2023</t>
+          <t>A 97-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44978</v>
+        <v>46017</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15009,7 +15004,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15046,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56805-2023</t>
+          <t>A 9651-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45244</v>
+        <v>44978</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15066,7 +15061,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15103,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22048-2024</t>
+          <t>A 56805-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45443</v>
+        <v>45244</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15123,7 +15118,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15160,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 47319-2022</t>
+          <t>A 22048-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44853.35390046296</v>
+        <v>45443</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15179,13 +15174,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15222,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 35239-2023</t>
+          <t>A 47319-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45145.74783564815</v>
+        <v>44853.35390046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,8 +15231,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15279,14 +15274,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 39798-2024</t>
+          <t>A 35239-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45553.33733796296</v>
+        <v>45145.74783564815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15299,7 +15294,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15336,14 +15331,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24349-2023</t>
+          <t>A 39798-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45082.31181712963</v>
+        <v>45553.33733796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15356,7 +15351,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15393,14 +15388,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24358-2023</t>
+          <t>A 24349-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45082.32069444445</v>
+        <v>45082.31181712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15413,7 +15408,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15450,14 +15445,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 16007-2024</t>
+          <t>A 24358-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45405.63997685185</v>
+        <v>45082.32069444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15470,7 +15465,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15507,14 +15502,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 8402-2024</t>
+          <t>A 16007-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45352.78115740741</v>
+        <v>45405.63997685185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15527,7 +15522,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15564,14 +15559,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 62782-2023</t>
+          <t>A 8402-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45268</v>
+        <v>45352.78115740741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15579,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15621,14 +15616,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7676-2025</t>
+          <t>A 62782-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45706.35903935185</v>
+        <v>45268</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15641,7 +15636,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15678,14 +15673,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 10592-2025</t>
+          <t>A 7676-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45721.5662962963</v>
+        <v>45706.35903935185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15698,7 +15693,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15735,14 +15730,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 39797-2024</t>
+          <t>A 10592-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45553.3358912037</v>
+        <v>45721.5662962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15755,7 +15750,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15792,14 +15787,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 54565-2025</t>
+          <t>A 39797-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45965</v>
+        <v>45553.3358912037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15812,7 +15807,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15849,14 +15844,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7826-2024</t>
+          <t>A 62980-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45349.74234953704</v>
+        <v>46009.489375</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15869,7 +15864,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15906,14 +15901,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 40542-2024</t>
+          <t>A 7826-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45555.63206018518</v>
+        <v>45349.74234953704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15926,7 +15921,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15963,14 +15958,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 108-2026</t>
+          <t>A 40542-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46017</v>
+        <v>45555.63206018518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15983,7 +15978,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16020,14 +16015,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 97-2026</t>
+          <t>A 907-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46017</v>
+        <v>45664</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16040,7 +16035,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16077,14 +16072,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 907-2025</t>
+          <t>A 63133-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45664</v>
+        <v>46010.30141203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16096,8 +16091,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16141,7 +16141,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16248,14 +16248,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 4300-2025</t>
+          <t>A 6970-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45685</v>
+        <v>46057.59109953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16305,14 +16305,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 63113-2023</t>
+          <t>A 4300-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45273.43495370371</v>
+        <v>45685</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16362,14 +16362,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35487-2024</t>
+          <t>A 63113-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45531</v>
+        <v>45273.43495370371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16419,14 +16419,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 38266-2021</t>
+          <t>A 35487-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44405.86967592593</v>
+        <v>45531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16476,14 +16476,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 17187-2025</t>
+          <t>A 38266-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45756.38744212963</v>
+        <v>44405.86967592593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16495,13 +16495,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16538,14 +16533,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 27251-2023</t>
+          <t>A 17187-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45096</v>
+        <v>45756.38744212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16559,11 +16554,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16600,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 59315-2024</t>
+          <t>A 27251-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45637.68884259259</v>
+        <v>45096</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16619,8 +16614,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16657,14 +16657,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7680-2023</t>
+          <t>A 7860-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44972</v>
+        <v>46062.68663194445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16714,14 +16714,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 56682-2024</t>
+          <t>A 59315-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45627.57983796296</v>
+        <v>45637.68884259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16771,14 +16771,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 34436-2022</t>
+          <t>A 7680-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44792</v>
+        <v>44972</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16828,14 +16828,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 37837-2023</t>
+          <t>A 56682-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45156</v>
+        <v>45627.57983796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16885,14 +16885,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 3968-2024</t>
+          <t>A 34436-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45322.71071759259</v>
+        <v>44792</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16942,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 11683-2024</t>
+          <t>A 37837-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45373</v>
+        <v>45156</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>23.8</v>
+        <v>2.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16999,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 57984-2022</t>
+          <t>A 3968-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44900</v>
+        <v>45322.71071759259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17056,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 51040-2022</t>
+          <t>A 11683-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44868.3232175926</v>
+        <v>45373</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.7</v>
+        <v>23.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17113,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22894-2021</t>
+          <t>A 57984-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44328.47186342593</v>
+        <v>44900</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17132,13 +17132,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17175,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 19256-2023</t>
+          <t>A 51040-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45049</v>
+        <v>44868.3232175926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17195,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17232,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 16267-2025</t>
+          <t>A 22894-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45750.82100694445</v>
+        <v>44328.47186342593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17251,8 +17246,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17289,14 +17289,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 20361-2025</t>
+          <t>A 19256-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45775.39840277778</v>
+        <v>45049</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17306,11 +17306,6 @@
       <c r="E282" t="inlineStr">
         <is>
           <t>TÖREBODA</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -17351,14 +17346,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 20362-2025</t>
+          <t>A 16267-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45775.40157407407</v>
+        <v>45750.82100694445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17370,13 +17365,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17413,14 +17403,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 5819-2025</t>
+          <t>A 20361-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45694.76770833333</v>
+        <v>45775.39840277778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17432,8 +17422,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17470,14 +17465,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 33754-2023</t>
+          <t>A 20362-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45133.41232638889</v>
+        <v>45775.40157407407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17487,6 +17482,11 @@
       <c r="E285" t="inlineStr">
         <is>
           <t>TÖREBODA</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -17527,14 +17527,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 39656-2024</t>
+          <t>A 5819-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45552.49091435185</v>
+        <v>45694.76770833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17584,14 +17584,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 20391-2023</t>
+          <t>A 33754-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45056.59340277778</v>
+        <v>45133.41232638889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17641,14 +17641,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 35360-2022</t>
+          <t>A 39656-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44798</v>
+        <v>45552.49091435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17698,14 +17698,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 11159-2023</t>
+          <t>A 20391-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44987</v>
+        <v>45056.59340277778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17755,14 +17755,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 10185-2023</t>
+          <t>A 35360-2022</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44986</v>
+        <v>44798</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17812,14 +17812,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 6442-2025</t>
+          <t>A 11159-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45699</v>
+        <v>44987</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17869,14 +17869,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 13056-2023</t>
+          <t>A 10185-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45002.37699074074</v>
+        <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,14 +17926,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 4941-2023</t>
+          <t>A 6442-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44958.433125</v>
+        <v>45699</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 62359-2022</t>
+          <t>A 13056-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44923</v>
+        <v>45002.37699074074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 62360-2022</t>
+          <t>A 4941-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44923.64385416666</v>
+        <v>44958.433125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 62363-2022</t>
+          <t>A 62359-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44923.64582175926</v>
+        <v>44923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 40598-2024</t>
+          <t>A 62360-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45556.34140046296</v>
+        <v>44923.64385416666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 28183-2022</t>
+          <t>A 62363-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44746</v>
+        <v>44923.64582175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18268,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 17360-2024</t>
+          <t>A 40598-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45414.60575231481</v>
+        <v>45556.34140046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18325,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 59440-2022</t>
+          <t>A 28183-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44907.39542824074</v>
+        <v>44746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18382,14 +18382,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 12207-2025</t>
+          <t>A 17360-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45729</v>
+        <v>45414.60575231481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18401,13 +18401,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18444,14 +18439,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 42109-2024</t>
+          <t>A 59440-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45562.3779050926</v>
+        <v>44907.39542824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18464,7 +18459,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18501,14 +18496,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 6811-2025</t>
+          <t>A 12207-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45700.69462962963</v>
+        <v>45729</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18520,8 +18515,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18558,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 16266-2025</t>
+          <t>A 42109-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45750</v>
+        <v>45562.3779050926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18615,14 +18615,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 33276-2023</t>
+          <t>A 6811-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45127.60350694445</v>
+        <v>45700.69462962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18672,14 +18672,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 18687-2025</t>
+          <t>A 16266-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45763.6129050926</v>
+        <v>45750</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18729,14 +18729,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 1554-2023</t>
+          <t>A 33276-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44937</v>
+        <v>45127.60350694445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18748,13 +18748,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18791,14 +18786,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 39791-2024</t>
+          <t>A 18687-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45553.33474537037</v>
+        <v>45763.6129050926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18811,7 +18806,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18848,14 +18843,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 58013-2022</t>
+          <t>A 1554-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44900</v>
+        <v>44937</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18867,8 +18862,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18905,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 58019-2022</t>
+          <t>A 39791-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44900</v>
+        <v>45553.33474537037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18962,14 +18962,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 53791-2023</t>
+          <t>A 58013-2022</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45231</v>
+        <v>44900</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,13 +18981,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19019,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 4591-2025</t>
+          <t>A 58019-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45687.54039351852</v>
+        <v>44900</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19039,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19076,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 39660-2024</t>
+          <t>A 53791-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45552</v>
+        <v>45231</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19100,8 +19095,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 18449-2024</t>
+          <t>A 4591-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45425.46256944445</v>
+        <v>45687.54039351852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19195,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 23662-2023</t>
+          <t>A 39660-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45077</v>
+        <v>45552</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19214,13 +19214,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19252,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 26208-2021</t>
+          <t>A 18449-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44347</v>
+        <v>45425.46256944445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19272,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19309,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 58755-2022</t>
+          <t>A 23662-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44903</v>
+        <v>45077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19331,6 +19326,11 @@
       <c r="E317" t="inlineStr">
         <is>
           <t>TÖREBODA</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 7120-2024</t>
+          <t>A 26208-2021</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45344</v>
+        <v>44347</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 719-2024</t>
+          <t>A 58755-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45300.4333449074</v>
+        <v>44903</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 22861-2024</t>
+          <t>A 7120-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45448.62668981482</v>
+        <v>45344</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19504,13 +19504,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G320" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19547,14 +19542,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 32463-2022</t>
+          <t>A 719-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44782.57694444444</v>
+        <v>45300.4333449074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19566,13 +19561,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19609,14 +19599,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 16682-2025</t>
+          <t>A 22861-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45754.44958333333</v>
+        <v>45448.62668981482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19628,8 +19618,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19666,14 +19661,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 56561-2024</t>
+          <t>A 32463-2022</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45625</v>
+        <v>44782.57694444444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19685,8 +19680,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19723,14 +19723,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 57670-2023</t>
+          <t>A 16682-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45246</v>
+        <v>45754.44958333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19780,14 +19780,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 51626-2023</t>
+          <t>A 56561-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45215</v>
+        <v>45625</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19837,14 +19837,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 4194-2024</t>
+          <t>A 57670-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45324</v>
+        <v>45246</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>28.9</v>
+        <v>1.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19894,14 +19894,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 12448-2024</t>
+          <t>A 51626-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45378</v>
+        <v>45215</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19951,14 +19951,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 57225-2021</t>
+          <t>A 4194-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44483.29784722222</v>
+        <v>45324</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,13 +19970,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G328" t="n">
-        <v>2.1</v>
+        <v>28.9</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20013,14 +20008,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 35448-2024</t>
+          <t>A 12448-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45531</v>
+        <v>45378</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20033,7 +20028,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20070,14 +20065,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 35489-2024</t>
+          <t>A 57225-2021</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45531</v>
+        <v>44483.29784722222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20089,8 +20084,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G330" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20127,14 +20127,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 41627-2022</t>
+          <t>A 35448-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44827</v>
+        <v>45531</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20184,14 +20184,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 41632-2022</t>
+          <t>A 35489-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44827</v>
+        <v>45531</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20204,7 +20204,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20241,14 +20241,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 48973-2023</t>
+          <t>A 41627-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45209</v>
+        <v>44827</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20298,14 +20298,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 25733-2021</t>
+          <t>A 41632-2022</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44343</v>
+        <v>44827</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20355,14 +20355,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 62781-2023</t>
+          <t>A 48973-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45268</v>
+        <v>45209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20412,14 +20412,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 4666-2024</t>
+          <t>A 25733-2021</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45328</v>
+        <v>44343</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20469,14 +20469,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 59438-2022</t>
+          <t>A 62781-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44907.39209490741</v>
+        <v>45268</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20526,14 +20526,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 51386-2024</t>
+          <t>A 4666-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45604.39815972222</v>
+        <v>45328</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20545,13 +20545,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G338" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20588,14 +20583,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 57974-2022</t>
+          <t>A 59438-2022</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>44900.45856481481</v>
+        <v>44907.39209490741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20608,7 +20603,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20645,14 +20640,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 8965-2025</t>
+          <t>A 51386-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45713.49025462963</v>
+        <v>45604.39815972222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20664,8 +20659,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G340" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20702,14 +20702,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 4218-2023</t>
+          <t>A 57974-2022</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>44951</v>
+        <v>44900.45856481481</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20759,14 +20759,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 20363-2025</t>
+          <t>A 8965-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45775.40270833333</v>
+        <v>45713.49025462963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20778,13 +20778,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G342" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20821,14 +20816,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 17497-2025</t>
+          <t>A 4218-2023</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45757.54159722223</v>
+        <v>44951</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20841,7 +20836,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>49.4</v>
+        <v>2</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20878,14 +20873,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 51889-2024</t>
+          <t>A 20363-2025</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45607.57304398148</v>
+        <v>45775.40270833333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20897,8 +20892,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G344" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20935,14 +20935,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 34862-2023</t>
+          <t>A 17497-2025</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45142.31351851852</v>
+        <v>45757.54159722223</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0.9</v>
+        <v>49.4</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20992,14 +20992,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 1550-2023</t>
+          <t>A 51889-2024</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44937.58658564815</v>
+        <v>45607.57304398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21011,13 +21011,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G346" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -21054,14 +21049,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 20447-2025</t>
+          <t>A 34862-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45775.49373842592</v>
+        <v>45142.31351851852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21074,7 +21069,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -21111,14 +21106,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 19874-2022</t>
+          <t>A 1550-2023</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>44697</v>
+        <v>44937.58658564815</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21130,8 +21125,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G348" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -21168,14 +21168,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 28196-2022</t>
+          <t>A 20447-2025</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44746</v>
+        <v>45775.49373842592</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21225,14 +21225,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 20976-2025</t>
+          <t>A 19874-2022</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45777.45978009259</v>
+        <v>44697</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21244,13 +21244,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G350" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21287,14 +21282,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 46088-2024</t>
+          <t>A 28196-2022</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45581.34831018518</v>
+        <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21306,13 +21301,8 @@
           <t>TÖREBODA</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G351" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21349,14 +21339,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 11730-2025</t>
+          <t>A 20976-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45727</v>
+        <v>45777.45978009259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21368,8 +21358,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G352" t="n">
-        <v>11.2</v>
+        <v>0.7</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21406,14 +21401,14 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 9109-2025</t>
+          <t>A 46088-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45713.77140046296</v>
+        <v>45581.34831018518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21425,8 +21420,13 @@
           <t>TÖREBODA</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G353" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44964</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44610</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44419.53385416666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44458</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44818</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44726</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44614</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44852.59957175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45457.60121527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>45645.78270833333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>45443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44698</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44853</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45076</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45552.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45643.57449074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45166</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44956.42466435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45373</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45051</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45627.58290509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45699</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45077</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45384.30657407407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45166.39717592593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44741.4200462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45643.47832175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44664.68390046297</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45309</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45664</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45450.38638888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45742.62731481482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45485.3945949074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45651.88362268519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>45189</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>45460.3953125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45632</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45460.39871527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45282.38482638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44988.39259259259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44987.54940972223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44987.55047453703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45885.43899305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44901.3806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45820.60309027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45569.39880787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45763.73197916667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45821</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45889.63019675926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45888.31350694445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45369.72144675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45552.34012731481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45099.32682870371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45831.43407407407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>45835.73509259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>45835</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45089.37612268519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>45834.35425925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44749</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>45834.35538194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45905</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45457.59540509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45904.55456018518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45096.59550925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45841.50584490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45841.55050925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45841.43224537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45841.32841435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44890</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45841.44478009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>45841</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>45841.55305555555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45841.35288194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45841</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44950.31137731481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45841.56569444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44740.29990740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45911.43915509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45841.34233796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>45841.41972222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>45684.69579861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45627.58121527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45764.41078703704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45915.54888888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45912</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45343</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45191.49090277778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45481.5821875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45350</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45720</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45741.70502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45919</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44690.68015046296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45922.35612268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44924.63210648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45233.45410879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44756.48106481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44860.31002314815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45929.50880787037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45142.3334837963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45552.4934375</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45642.86667824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45579.48623842592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45295</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45399.63689814815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45552.43295138889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44901.36065972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44924.68337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45937.67055555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45938.37202546297</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>45938.38199074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>45938.3859375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45882</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>45236.38694444444</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>45938.36971064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>45642.86611111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45939.63877314814</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45937.66828703704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45756.39010416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44900.66938657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44964.66091435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45885.44560185185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45885.4540162037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45530.53361111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45328</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45947.46731481481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44978</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45952.40320601852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45443</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44853.35390046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45145.74783564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45954.77373842592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45553.33733796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45082.31181712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45082.32069444445</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45954.77623842593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45405.63997685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45352.78115740741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45961</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45268</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45964.59778935185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45706.35903935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45721.5662962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45553.3358912037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45971</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45971</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45349.74234953704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45555.63206018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45972.54129629629</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45664</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45972.37239583334</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45972.39038194445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45972.4053587963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45972.61072916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45972.37070601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45974.30063657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45974.30472222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45974.30938657407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45685</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45273.43495370371</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45531</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44405.86967592593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45756.38744212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45637.68884259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45627.57983796296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44792</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45156</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45322.71071759259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45965</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45373</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44900</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44868.3232175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>46017</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>46017</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44328.47186342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45750.82100694445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45775.39840277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45775.40157407407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45694.76770833333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45133.41232638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45552.49091435185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45056.59340277778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44798</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44986</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45699</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>46009.489375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>45002.37699074074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>46010.30141203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44958.433125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44923</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44923.64385416666</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44923.64582175926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45556.34140046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44746</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>45414.60575231481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>46057.59109953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44907.39542824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45729</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45562.3779050926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45700.69462962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45750</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45127.60350694445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>46062.68663194445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45763.6129050926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44937</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45553.33474537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44900</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44900</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45231</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45687.54039351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45552</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45425.46256944445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45077</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44347</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44903</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45344</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45300.4333449074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45448.62668981482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>44782.57694444444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45754.44958333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45625</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45246</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45324</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45378</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44483.29784722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45531</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45531</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44343</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45268</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45328</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44907.39209490741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45604.39815972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44900.45856481481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45713.49025462963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44951</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45775.40270833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45757.54159722223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45607.57304398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45142.31351851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44937.58658564815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45775.49373842592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44697</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>45777.45978009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45581.34831018518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45727</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45713.77140046296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45730.31946759259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45493.34775462963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45394</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45439.63131944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45209</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45631</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45569.39606481481</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>45763.6150462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45811</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45811.46427083333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45813.29658564815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45813.29825231482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44964</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>44610</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44419.53385416666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44458</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44818</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44726</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44614</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44852.59957175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45457.60121527778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>45645.78270833333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>45443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44698</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>44853</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>45076</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45552.48734953703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45643.57449074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>45166</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44956.42466435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45373</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45051</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45721</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45627.58290509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45699</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>45077</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45384.30657407407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45166.39717592593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44741.4200462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45643.47832175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44664.68390046297</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45309</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45664</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45450.38638888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45742.62731481482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45485.3945949074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45651.88362268519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>45189</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44816</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>45460.3953125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45632</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45460.39871527778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45282.38482638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44988.39259259259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44987.54940972223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44987.55047453703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45885.43899305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44901.3806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45820.60309027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45569.39880787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45763.73197916667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45821</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45889.63019675926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45888.31350694445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45369.72144675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45552.34012731481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45099.32682870371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45831.43407407407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>45835.73509259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>45835</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45089.37612268519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>45834.35425925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>44749</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>45834.35538194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45905</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45457.59540509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45904.55456018518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45096.59550925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45841.50584490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45841.55050925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45841.43224537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45841.32841435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44890</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45841.44478009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>45841</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>45841.55305555555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45841.35288194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45841</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44950.31137731481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45841.56569444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>44740.29990740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45911.43915509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45841.34233796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>45841.41972222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>45684.69579861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45627.58121527778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45764.41078703704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45915.54888888889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45912</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45343</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45191.49090277778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45481.5821875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45350</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45720</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45741.70502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45919</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44690.68015046296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45922.35612268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44924.63210648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45233.45410879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44756.48106481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44860.31002314815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45929.50880787037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45142.3334837963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45552.4934375</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45642.86667824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45579.48623842592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45295</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45720</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45399.63689814815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45552.43295138889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44901.36065972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44924.68337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45937.67055555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45938.37202546297</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>45938.38199074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>45938.3859375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45882</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>45236.38694444444</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>45938.36971064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>45642.86611111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45939.63877314814</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45937.66828703704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45756.39010416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44900.66938657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44964.66091435185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45885.44560185185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45885.4540162037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45530.53361111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45328</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45947.46731481481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44978</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45952.40320601852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45443</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44853.35390046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45145.74783564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45954.77373842592</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45553.33733796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45082.31181712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45082.32069444445</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45954.77623842593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45405.63997685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45352.78115740741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45961</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45268</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45964.59778935185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45706.35903935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45721.5662962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45553.3358912037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45971</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45971</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45349.74234953704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45555.63206018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45972.54129629629</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45664</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45972.37239583334</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45972.39038194445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45972.4053587963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45972.61072916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45972.37070601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45974.30063657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45974.30472222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45974.30938657407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45685</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45273.43495370371</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45531</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44405.86967592593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45756.38744212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45637.68884259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45627.57983796296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44792</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45156</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45322.71071759259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45965</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45373</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44900</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44868.3232175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>46017</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>46017</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44328.47186342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45750.82100694445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45775.39840277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45775.40157407407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45694.76770833333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45133.41232638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45552.49091435185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45056.59340277778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44798</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44986</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45699</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>46009.489375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>45002.37699074074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>46010.30141203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44958.433125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44923</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44923.64385416666</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44923.64582175926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45556.34140046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44746</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>45414.60575231481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>46057.59109953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44907.39542824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45729</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45562.3779050926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45700.69462962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45750</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45127.60350694445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>46062.68663194445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45763.6129050926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>44937</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45553.33474537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44900</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44900</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45231</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45687.54039351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45552</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45425.46256944445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45077</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>44347</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>44903</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45344</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45300.4333449074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45448.62668981482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>44782.57694444444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45754.44958333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45625</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45246</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45215</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45324</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45378</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44483.29784722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45531</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45531</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44827</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45209</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44343</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45268</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45328</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44907.39209490741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45604.39815972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44900.45856481481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45713.49025462963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44951</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45775.40270833333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45757.54159722223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45607.57304398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45142.31351851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44937.58658564815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45775.49373842592</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44697</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>45777.45978009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45581.34831018518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45727</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45713.77140046296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45730.31946759259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45493.34775462963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45394</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45439.63131944444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45209</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45631</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45569.39606481481</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>45763.6150462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45593</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45811</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45811.46427083333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45813.29658564815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45813.29825231482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -575,7 +575,7 @@
         <v>45191.48938657407</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45722.5666550926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45757.80203703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45777.46130787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45264.53585648148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45727.56438657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44608.45642361111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44964</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44610</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45757</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>45742.66724537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44937</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45621.529375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45729.4359375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44319.51872685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44454</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44419.53385416666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44503</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44503</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44684</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44383.48355324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44458</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44390</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44733.62166666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44740.52371527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44818</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44726</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44608.46501157407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44616</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>44719.38436342592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44614</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44614</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44379.47923611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44280.27577546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44263</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44546.38177083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44503</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44507</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44719.31350694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44326.42354166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44754.35616898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44601.88369212963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44719.37288194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44847</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44614.54890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44579</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44531.45315972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44368.62329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44837.37662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44852.59957175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45369.72144675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>45209</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44860.31002314815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>45460.3953125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45373</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45756.38744212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45443</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>45457.60121527778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>44986</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>44868.3232175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44853</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>45282.38482638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44405.86967592593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45341</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45300.4333449074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>45531</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45481.5821875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45414.60575231481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45627.57983796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44900.66938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44907.39542824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44988.39259259259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>45882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44900</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44900</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44924.63210648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45642.86611111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>45885.44560185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>45885.4540162037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>45888.31350694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45811.46427083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>45127.60350694445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>45811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>45885.43899305556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45750</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45813.29658564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45813.29825231482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44958.433125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>45889.63019675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>45531</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>45099.32682870371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45552.49091435185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>45378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>45399.63689814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>45820.60309027778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>45051</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44698</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45821</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45343</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>45569.39880787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45763.73197916667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44923</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44923.64385416666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>45089.37612268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45579.48623842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>45831.43407407407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>45904.55456018518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>45905</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45834.35538194444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>45553.33474537037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>45834.35425925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45835</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45835.73509259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45841.56569444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45841.34233796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45841</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45841.32841435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45841.41972222222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45328</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45841.43224537037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45841</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45841.55305555555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45841.50584490741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>45841.44478009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>45841.55050925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45841.35288194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45611.35905092592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45911.43915509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45912</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45684.69579861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44853.35390046296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>45764.41078703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>45077</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44483.29784722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45002.37699074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45803</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45720</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>45741.70502314815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45915.54888888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>45627.58121527778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44690.68015046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45664</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>45664</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45919.61405092593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45919</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45922.35612268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>45924.59836805556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>45699</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44782.57694444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>45295</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>45929.50880787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>45713.49025462963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45189</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44756.48106481481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44347</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45642.86667824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45720</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44328.47186342593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45775.39840277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>45775.40157407407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45643.47832175926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45938.38199074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45938.3859375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45775.49373842592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45938.36971064815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45938.37202546297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45937.66828703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45937.67055555555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>45939.63877314814</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>45049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>45754.44958333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45425.46256944445</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45757.54159722223</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44924.68337962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>45754.46989583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45096</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45947.46731481481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45553.33733796296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>44890</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45952.40320601852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44937</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>45231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45450.38638888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45742.62731481482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45954.77373842592</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45954.77623842593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45384.30657407407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45937</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45961</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45964.59778935185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45344</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45142.3334837963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>45309</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>45145.74743055556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45972.39038194445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45133.41232638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45972.54129629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45971</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45972.4053587963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45974.30063657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45974.30472222222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45972.37070601852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45974.30938657407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45972.61072916666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45972.37239583334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45706.35903935185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45460.39697916667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45166.39717592593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45643.57449074074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45556.34140046296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45096.59550925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45443</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45457.59540509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45552</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>45627.58290509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45555.63206018518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45268</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44664.68390046297</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45145.74783564815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45328</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45729</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45750.8152662037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45632</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45191.49090277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45077</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45965</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45665</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>46017</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>46017</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45607.57304398148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45236.38694444444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44697</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45156</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45531</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45237.74319444445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45763.6129050926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44900.45856481481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>46009.489375</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>46010.30141203704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44749</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45720</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>45645.78270833333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>46057.59109953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>46062.68663194445</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44746</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45530.53361111111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44950.31137731481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>45448.62668981482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45694.76770833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45756.39010416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45233.45410879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45405.63997685185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44978</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44740.29990740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45651.88362268519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45485.3945949074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44858.79685185185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44901.3806712963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45721</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45685</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>46078.61452546297</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45268</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44951</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44923.64582175926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45344</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44964.66091435185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>45637.68884259259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44816</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>45775.40270833333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44599</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44900</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45460.39871527778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45246</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44901.36065972222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45076</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44937.58658564815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44972</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44746</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45142.31351851852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45699</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45562.3779050926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45349.74234953704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44987.54940972223</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44987.55047453703</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44956.42466435185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44792</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>45625</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>45721.5662962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>45324</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>45322.71071759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>45056.59340277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44741.4200462963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44894</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45750.82100694445</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>45553.3358912037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45552.4934375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>44978</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44827</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>44827</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45552.34012731481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45552.43295138889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45700.69462962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45687.54039351852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45552.48734953703</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45273.43495370371</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>45350</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45245.5027662037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45531</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>44907.39209490741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45352.78115740741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45720</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45244</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45604.39815972222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45082.31181712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45082.32069444445</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45777.45978009259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45581.34831018518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45727</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45713.77140046296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45730.31946759259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45631</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45439.63131944444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45394</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45763.6150462963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45209</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45493.34775462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45569.39606481481</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
